--- a/xlsx/データアナリティクス基礎/例題_データアナリティクス基礎/例題7_異なる授業形態による成績データ.xlsx
+++ b/xlsx/データアナリティクス基礎/例題_データアナリティクス基礎/例題7_異なる授業形態による成績データ.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JSTORAGE.jmam.local\users$\JM0835\山地の仕事\書籍\統計検定データサイエンス\データセット\例題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY810251\python\dataAnalyticsBasic\xlsx\データアナリティクス基礎\例題_データアナリティクス基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D70C17E-D567-4746-9C3B-10F10471C50F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B461BE-6D4F-45D7-8DBD-0301558E5EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14470" yWindow="0" windowWidth="24020" windowHeight="20340" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="データ" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="データ" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">データ!$A$1:$B$81</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="53">
   <si>
     <t>対面</t>
     <rPh sb="0" eb="2">
@@ -67,11 +75,224 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>行ラベル</t>
+  </si>
+  <si>
+    <t>オンライン</t>
+  </si>
+  <si>
+    <t>対面</t>
+  </si>
+  <si>
+    <t>総計</t>
+  </si>
+  <si>
+    <t>合計 / 成績（点）</t>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数 / 成績（点）2</t>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準誤差</t>
+  </si>
+  <si>
+    <t>標準誤差</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゴサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均 / 成績（点）2</t>
+  </si>
+  <si>
+    <t>母平均推定値</t>
+    <rPh sb="0" eb="6">
+      <t>ボヘイキンスイテイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標準偏差 / 成績（点）2</t>
+  </si>
+  <si>
+    <t>標本標準偏差 / 成績（点）2</t>
+  </si>
+  <si>
+    <t>3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不偏分散</t>
+    <rPh sb="0" eb="2">
+      <t>フヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブンサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t分布 95%信頼区間の上限値</t>
+    <rPh sb="1" eb="3">
+      <t>ブンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CONFIDENCE.T(0.05, C10,40)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t_0.975(39)=</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Online</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Facing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>std error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>confidence.t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mean.upper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mean.lower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>個数 / 成績（点）</t>
+  </si>
+  <si>
+    <t>平均 / 成績（点）</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>中央値 （メジアン）</t>
+  </si>
+  <si>
+    <t>最頻値 （モード）</t>
+  </si>
+  <si>
+    <t>標準偏差</t>
+  </si>
+  <si>
+    <t>分散</t>
+  </si>
+  <si>
+    <t>尖度</t>
+  </si>
+  <si>
+    <t>歪度</t>
+  </si>
+  <si>
+    <t>範囲</t>
+  </si>
+  <si>
+    <t>最小</t>
+  </si>
+  <si>
+    <t>最大</t>
+  </si>
+  <si>
+    <t>合計</t>
+  </si>
+  <si>
+    <t>データの個数</t>
+  </si>
+  <si>
+    <t>信頼度(95.0%)(95.0%)</t>
+  </si>
+  <si>
+    <t>オンライン成績</t>
+  </si>
+  <si>
+    <t>オンライン成績</t>
+    <rPh sb="5" eb="7">
+      <t>セイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対面成績</t>
+  </si>
+  <si>
+    <t>対面成績</t>
+    <rPh sb="0" eb="2">
+      <t>タイメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="182" formatCode="0.00000000"/>
+    <numFmt numFmtId="207" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -111,7 +332,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,11 +340,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,11 +372,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0.0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -146,6 +411,548 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="矢口 誠" refreshedDate="45434.387979629631" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{8CD73BBD-963E-44DC-B2B6-0A3BACA28472}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B81" sheet="データ"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="授業形態" numFmtId="0">
+      <sharedItems count="2">
+        <s v="オンライン"/>
+        <s v="対面"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="成績（点）" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="48" maxValue="66" count="18">
+        <n v="61"/>
+        <n v="58"/>
+        <n v="64"/>
+        <n v="62"/>
+        <n v="48"/>
+        <n v="55"/>
+        <n v="53"/>
+        <n v="57"/>
+        <n v="50"/>
+        <n v="60"/>
+        <n v="56"/>
+        <n v="52"/>
+        <n v="59"/>
+        <n v="54"/>
+        <n v="65"/>
+        <n v="66"/>
+        <n v="63"/>
+        <n v="49"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5382F468-341C-4D6F-9E8D-B73995FF263F}" name="ピボットテーブル1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="19">
+        <item x="4"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="11"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="16"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="個数 / 成績（点）2" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="合計 / 成績（点）" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="平均 / 成績（点）2" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="標準偏差 / 成績（点）2" fld="1" subtotal="stdDevp" baseField="0" baseItem="0"/>
+    <dataField name="標本標準偏差 / 成績（点）2" fld="1" subtotal="stdDev" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{758A9E90-A7B8-4ECA-AD09-D9F8636C15E2}" name="ピボットテーブル2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="値" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="個数 / 成績（点）" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="平均 / 成績（点）" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,415 +1217,1276 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01FE6C8-B52F-4854-85A9-3192E31A27A4}">
+  <dimension ref="A3:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="13" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7">
+        <v>2357</v>
+      </c>
+      <c r="D4" s="4">
+        <v>58.924999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3.1175912175909142</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.1573073565285967</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2180</v>
+      </c>
+      <c r="D5" s="4">
+        <v>54.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3.3090784215548594</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.3512339862756866</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4537</v>
+      </c>
+      <c r="D6" s="7">
+        <v>56.712499999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3.9025432412722862</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3.9271652094454375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <f>D4</f>
+        <v>58.924999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3">
+        <f>F4</f>
+        <v>3.1573073565285967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <f>C10/SQRT(B4)</f>
+        <v>0.49921412599178305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.T.INV(0.975, 39)</f>
+        <v>2.0226909200367595</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15*C11+C9</f>
+        <v>59.934755879797663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <f>_xlfn.CONFIDENCE.T(0.05, C10,40)</f>
+        <v>1.0097558797976665</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17+C9</f>
+        <v>59.934755879797663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f>B4</f>
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <f>B5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8">
+        <f>D4</f>
+        <v>58.924999999999997</v>
+      </c>
+      <c r="D21" s="8">
+        <f>D5</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="8">
+        <f>F4</f>
+        <v>3.1573073565285967</v>
+      </c>
+      <c r="D22" s="8">
+        <f>F5</f>
+        <v>3.3512339862756866</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="8">
+        <f>C22/SQRT(C20)</f>
+        <v>0.49921412599178305</v>
+      </c>
+      <c r="D23" s="8">
+        <f>D22/SQRT(D20)</f>
+        <v>0.52987661843983136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.CONFIDENCE.T(0.05,C22,C20)</f>
+        <v>1.0097558797976665</v>
+      </c>
+      <c r="D24">
+        <f>_xlfn.CONFIDENCE.T(0.05,D22,D20)</f>
+        <v>1.0717766248580294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="9">
+        <f>C21-C24</f>
+        <v>57.915244120202331</v>
+      </c>
+      <c r="D25" s="9">
+        <f>D21-D24</f>
+        <v>53.428223375141968</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="9">
+        <f>C21+C24</f>
+        <v>59.934755879797663</v>
+      </c>
+      <c r="D26" s="9">
+        <f>D21+D24</f>
+        <v>55.571776624858032</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{464E9E84-6828-45F0-BDC0-1F9967C240DD}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7">
+        <v>58.924999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7">
+        <v>40</v>
+      </c>
+      <c r="C5" s="7">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="7">
+        <v>80</v>
+      </c>
+      <c r="C6" s="7">
+        <v>56.712499999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="7" max="7" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.5" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>B2</f>
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <f>B42</f>
+        <v>48</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" ref="C3:C41" si="0">B3</f>
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D40" si="1">B43</f>
+        <v>55</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="10">
+        <v>58.924999999999997</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="10">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.49921412599178688</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.52987661843983136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="10">
+        <v>59</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="10">
+        <v>59</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>61</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3.1573073565286207</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="10">
+        <v>3.3512339862756866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>57</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="10">
+        <v>9.9685897435897459</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="10">
+        <v>11.23076923076923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="10">
+        <v>8.5972148952941474E-2</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="10">
+        <v>-0.49841776671141336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="10">
+        <v>-6.6467896685306407E-2</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="10">
+        <v>-0.37864432749300131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="10">
+        <v>14</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>58</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="10">
+        <v>52</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="10">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="10">
+        <v>66</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="10">
+        <v>2357</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="10">
+        <v>40</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="18.5" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
+        <v>59</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.0097558797976742</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.0717766248580294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1">
+        <v>59</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>59</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>65</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="1">
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>57</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
+        <v>59</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B39" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>53</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>63</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D41">
+        <f>B81</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B42" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B43" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B44" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B45" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B46" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B48" s="1">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B49" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B50" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -831,10 +2499,10 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B52" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -842,15 +2510,15 @@
         <v>0</v>
       </c>
       <c r="B53" s="1">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B54" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -858,15 +2526,15 @@
         <v>0</v>
       </c>
       <c r="B55" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="1">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -874,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="1">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -882,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -890,39 +2558,39 @@
         <v>0</v>
       </c>
       <c r="B59" s="1">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B60" s="1">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B62" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B63" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -930,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -938,15 +2606,15 @@
         <v>0</v>
       </c>
       <c r="B65" s="1">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B66" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -954,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -962,23 +2630,23 @@
         <v>0</v>
       </c>
       <c r="B68" s="1">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B69" s="1">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B70" s="1">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -986,39 +2654,39 @@
         <v>0</v>
       </c>
       <c r="B71" s="1">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B72" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B73" s="1">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B74" s="1">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1026,7 +2694,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1034,23 +2702,23 @@
         <v>0</v>
       </c>
       <c r="B77" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B78" s="1">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B79" s="1">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1070,6 +2738,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
+    <sortCondition ref="A2:A81"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
